--- a/public/files/libreschemas_generic_schema_template.xlsx
+++ b/public/files/libreschemas_generic_schema_template.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunvos/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunvos/Code/libreschemas-website-react/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92645FF1-1ABA-874B-AA70-AD91888E2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72797B9C-2217-424E-8FBE-6785659AC7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B627652A-88F9-C84F-B479-8AF52A9F34F8}"/>
+    <workbookView xWindow="1520" yWindow="380" windowWidth="35380" windowHeight="19880" activeTab="2" xr2:uid="{B627652A-88F9-C84F-B479-8AF52A9F34F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Behaviour Info" sheetId="2" r:id="rId2"/>
-    <sheet name="License Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Behaviours" sheetId="1" r:id="rId1"/>
+    <sheet name="Behaviour_Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Challenges" sheetId="4" r:id="rId3"/>
+    <sheet name="Adjustments" sheetId="5" r:id="rId4"/>
+    <sheet name="Adjustment_Types" sheetId="6" r:id="rId5"/>
+    <sheet name="License Info" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk58824926" localSheetId="1">'Behaviour Info'!$A$1</definedName>
+    <definedName name="_Hlk58824926" localSheetId="1">Behaviour_Types!$A$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="65">
   <si>
     <t>Expected Behaviour</t>
   </si>
@@ -210,13 +213,37 @@
   </si>
   <si>
     <t>Author information is not essential provided it is your own work.</t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Sensory</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Social Interaction</t>
+  </si>
+  <si>
+    <t>Understanding and Compassion</t>
+  </si>
+  <si>
+    <t>Meltdowns and Shutdowns</t>
+  </si>
+  <si>
+    <t>To do:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,8 +319,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +375,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAAE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -521,12 +560,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,6 +680,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -626,17 +703,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1326,6 +1404,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFAAE8"/>
       <color rgb="FF00A9AB"/>
       <color rgb="FFFA5F57"/>
     </mruColors>
@@ -1640,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB8576E-F095-DD4D-A049-1BDF724BEFF9}">
   <dimension ref="A2:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,28 +1746,28 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1696,7 +1775,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="39" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2665,13 +2744,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF62C638-4920-AE43-9EA5-BF67259D9A46}">
           <x14:formula1>
-            <xm:f>'Behaviour Info'!$A$9:$A$11</xm:f>
+            <xm:f>Behaviour_Types!$A$9:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>A27:A30 A43:A46 A59:A62 A75:A78 A91:A94 A107:A110 A123:A126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD970ABF-A066-B84B-B5CB-5835A5F569C3}">
           <x14:formula1>
-            <xm:f>'Behaviour Info'!$A$2:$A$6</xm:f>
+            <xm:f>Behaviour_Types!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>A18:A22 A34:A38 A50:A54 A66:A70 A82:A86 A98:A102 A114:A118</xm:sqref>
         </x14:dataValidation>
@@ -2768,20 +2847,20 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -2827,6 +2906,777 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DB9D56-FF8C-5B40-B8E4-81577EFDE144}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020410D9-56EF-4B4A-A4B8-273AF112A708}">
+  <dimension ref="A2:B119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="50"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="48"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="48"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="48"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="48"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="48"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="48"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="48"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="48"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="48"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="48"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="48"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="48"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="49"/>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="50"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="48"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="48"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="48"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="48"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="48"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="48"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="48"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="48"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="48"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="48"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="48"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="48"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="48"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="48"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="49"/>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="50"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="48"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="48"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="48"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="48"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="48"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="48"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="48"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="48"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="48"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="48"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="48"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="48"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="48"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="48"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="49"/>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="50"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="48"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="48"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="48"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="48"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="48"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="48"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="48"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="48"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="48"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="48"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="48"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="48"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="48"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="48"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="49"/>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="50"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="48"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="48"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="48"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="48"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="48"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="48"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="48"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="48"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="48"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="48"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="48"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="48"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" s="48"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="48"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="49"/>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="50"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="48"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="48"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="48"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="48"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="48"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="48"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="48"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="48"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="48"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="48"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="48"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="48"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="48"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="48"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="49"/>
+    </row>
+    <row r="104" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="50"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="48"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="48"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" s="48"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="48"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="48"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="48"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="48"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="48"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="48"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" s="48"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="48"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="48"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="48"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="48"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6FBCB75-12B6-9543-9F14-22E9E741C971}">
+          <x14:formula1>
+            <xm:f>Adjustment_Types!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A17 A20:A34 A37:A51 A54:A68 A71:A85 A88:A102 A105:A119</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ADCE69-2C0F-DD4F-A7AB-38048A7BC804}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69F3DBB-2355-DC4E-9B33-32555E4110C5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2841,10 +3691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2860,7 +3710,7 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2868,7 +3718,7 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2876,7 +3726,7 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2889,16 +3739,16 @@
       <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
